--- a/ExcelReadWrite/Assets/Editor/ExcelData/con_excel_TitleDto.xlsx
+++ b/ExcelReadWrite/Assets/Editor/ExcelData/con_excel_TitleDto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>技能id,技能id,技能id,</t>
   </si>
@@ -43,82 +43,91 @@
     <t>名字</t>
   </si>
   <si>
+    <t>技能列表</t>
+  </si>
+  <si>
+    <t>比卡丘</t>
+  </si>
+  <si>
+    <t>我是比卡丘</t>
+  </si>
+  <si>
+    <t>1,5,4</t>
+  </si>
+  <si>
+    <t>妙蛙种子</t>
+  </si>
+  <si>
+    <t>我是妙蛙种子</t>
+  </si>
+  <si>
+    <t>8,7,10</t>
+  </si>
+  <si>
+    <t>小火龙</t>
+  </si>
+  <si>
+    <t>我是小火龙</t>
+  </si>
+  <si>
+    <t>5,7,8</t>
+  </si>
+  <si>
+    <t>可达鸭</t>
+  </si>
+  <si>
+    <t>我是可达鸭</t>
+  </si>
+  <si>
+    <t>7,8,5,3</t>
+  </si>
+  <si>
+    <t>超音蝠</t>
+  </si>
+  <si>
+    <t>我是超音蝠</t>
+  </si>
+  <si>
+    <t>10,8,7</t>
+  </si>
+  <si>
+    <t>蚊香君</t>
+  </si>
+  <si>
+    <t>我是蚊香君</t>
+  </si>
+  <si>
+    <t>4,3,5</t>
+  </si>
+  <si>
+    <t>大食花</t>
+  </si>
+  <si>
+    <t>我是大食花</t>
+  </si>
+  <si>
+    <t>11,4,14</t>
+  </si>
+  <si>
+    <t>卡拉卡拉</t>
+  </si>
+  <si>
+    <t>我是卡拉卡拉</t>
+  </si>
+  <si>
+    <t>6,3,15</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>技能列表</t>
-  </si>
-  <si>
-    <t>比卡丘</t>
-  </si>
-  <si>
-    <t>我是比卡丘</t>
-  </si>
-  <si>
-    <t>1,5,4</t>
-  </si>
-  <si>
-    <t>妙蛙种子</t>
-  </si>
-  <si>
-    <t>我是妙蛙种子</t>
-  </si>
-  <si>
-    <t>8,7,10</t>
-  </si>
-  <si>
-    <t>小火龙</t>
-  </si>
-  <si>
-    <t>我是小火龙</t>
-  </si>
-  <si>
-    <t>5,7,8</t>
-  </si>
-  <si>
-    <t>可达鸭</t>
-  </si>
-  <si>
-    <t>我是可达鸭</t>
-  </si>
-  <si>
-    <t>7,8,5,3</t>
-  </si>
-  <si>
-    <t>超音蝠</t>
-  </si>
-  <si>
-    <t>我是超音蝠</t>
-  </si>
-  <si>
-    <t>10,8,7</t>
-  </si>
-  <si>
-    <t>蚊香君</t>
-  </si>
-  <si>
-    <t>我是蚊香君</t>
-  </si>
-  <si>
-    <t>4,3,5</t>
-  </si>
-  <si>
-    <t>大食花</t>
-  </si>
-  <si>
-    <t>我是大食花</t>
-  </si>
-  <si>
-    <t>11,4,14</t>
-  </si>
-  <si>
-    <t>卡拉卡拉</t>
-  </si>
-  <si>
-    <t>我是卡拉卡拉</t>
-  </si>
-  <si>
-    <t>6,3,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,7 +507,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,6 +524,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -534,14 +546,17 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -549,13 +564,13 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -563,13 +578,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -577,13 +592,13 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -591,13 +606,13 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -605,13 +620,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -619,13 +634,13 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -633,13 +648,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -647,13 +662,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
